--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Day0908\修改\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -308,6 +308,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,12 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
@@ -626,28 +626,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="12">
         <v>42990</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10">
+      <c r="C1" s="13"/>
+      <c r="D1" s="12">
         <v>42989</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10">
+      <c r="E1" s="13"/>
+      <c r="F1" s="12">
         <v>42990</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -678,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
@@ -691,10 +691,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
@@ -704,10 +704,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
@@ -717,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
@@ -730,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
@@ -743,10 +743,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
@@ -755,11 +755,11 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
@@ -768,11 +768,11 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
@@ -959,8 +959,8 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="12" customFormat="1">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:9" s="14" customFormat="1">
+      <c r="A26" s="14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -93,12 +93,125 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>handler自己就可以实现类似计时功能，不用借助Timer类，再尝试下</t>
+    <rPh sb="7" eb="8">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiu'ke'yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lei'si</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gong'neg</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bu'yong</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jie'zhu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chagn'shi'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要说明类的功能和使用上下文，例：搜索歌曲点击的自定义监听，且不用详细描述类中的方法，但可以简述类的实现思路和组织策略</t>
+    <rPh sb="14" eb="15">
+      <t>li</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>sou'suo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ge'qu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zi'ding'yi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jian'ting</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bu'yong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xinag'xi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>miao'shu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>de</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fang'fa</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dan'ke'yi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>jian'shu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>de</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>si'lu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>he</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zu'zhi</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ce'lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -281,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -328,6 +447,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,23 +737,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.84375" customWidth="1"/>
-    <col min="4" max="4" width="22.921875" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
-    <col min="6" max="6" width="24.53515625" customWidth="1"/>
-    <col min="7" max="9" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -646,7 +774,7 @@
       </c>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -673,12 +801,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="10"/>
@@ -686,12 +814,14 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="17">
+        <v>9121</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10"/>
@@ -699,12 +829,12 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="10"/>
@@ -712,12 +842,12 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
@@ -725,12 +855,12 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
@@ -738,12 +868,12 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
@@ -751,12 +881,12 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
@@ -764,12 +894,14 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="17">
+        <v>9122</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
@@ -777,7 +909,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -790,7 +922,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -803,7 +935,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -816,7 +948,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -829,7 +961,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -842,7 +974,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1">
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -855,7 +987,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1">
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -868,7 +1000,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1">
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -881,7 +1013,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1">
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -894,7 +1026,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -907,7 +1039,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1">
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -920,7 +1052,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1">
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -933,7 +1065,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1">
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -946,7 +1078,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="20.5" thickBot="1">
+    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -959,13 +1091,46 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="14" customFormat="1">
+    <row r="26" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>9121</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>9122</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -206,12 +206,16 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2017/9/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,6 +437,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,15 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,43 +743,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:I28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.84375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" customWidth="1"/>
+    <col min="6" max="6" width="24.4609375" customWidth="1"/>
+    <col min="7" max="9" width="20.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="15">
         <v>42990</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12">
-        <v>42989</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="12">
-        <v>42990</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15">
+        <v>42992</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="19"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -801,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -814,22 +818,22 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>9121</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="24" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -842,7 +846,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -855,7 +859,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="24" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -868,7 +872,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -881,7 +885,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -894,87 +898,87 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="24" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <v>9122</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="24" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="24" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -987,7 +991,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="24" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1000,7 +1004,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="24" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1013,7 +1017,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="24" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1026,7 +1030,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="24" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1039,7 +1043,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="24" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1052,7 +1056,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1065,7 +1069,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="24" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1078,7 +1082,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="20.5" thickBot="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1091,41 +1095,41 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:9" s="17" customFormat="1">
+      <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="42" customHeight="1"/>
+    <row r="28" spans="1:9" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>9121</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -210,12 +210,46 @@
     <t>2017/9/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ViewPager的每一项View仅在运行时创建，上层仅提供数据</t>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'yi'xiang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yun'xing'shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chuagn'jian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shang'ceng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -741,23 +775,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
-    <col min="6" max="6" width="24.4609375" customWidth="1"/>
-    <col min="7" max="9" width="20.84375" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -778,7 +812,7 @@
       </c>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -805,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -818,7 +852,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -827,13 +861,13 @@
         <v>9121</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -846,7 +880,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -859,7 +893,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -872,7 +906,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -885,7 +919,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -898,7 +932,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -907,78 +941,80 @@
         <v>9122</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12">
+        <v>9141</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1">
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -991,7 +1027,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1">
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1004,7 +1040,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1">
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1017,7 +1053,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1">
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1030,7 +1066,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1043,7 +1079,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1">
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1056,7 +1092,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1">
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1069,7 +1105,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1">
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1082,7 +1118,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="20.5" thickBot="1">
+    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1095,13 +1131,13 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="17" customFormat="1">
+    <row r="26" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1"/>
-    <row r="28" spans="1:9" ht="26" customHeight="1">
+    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9121</v>
       </c>
@@ -1116,7 +1152,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
@@ -1131,8 +1167,68 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>9141</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="D1:E1"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -248,8 +248,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -777,21 +777,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I30"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.84375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" customWidth="1"/>
+    <col min="6" max="6" width="24.4609375" customWidth="1"/>
+    <col min="7" max="9" width="20.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -812,7 +812,7 @@
       </c>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="24" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="24" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="24" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="24" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="24" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="24" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="24" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="24" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="24" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="24" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="24" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="20.5" thickBot="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1131,13 +1131,13 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="17" customFormat="1">
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="42" customHeight="1"/>
+    <row r="28" spans="1:9" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>9121</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>9141</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1192,7 +1192,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1202,7 +1202,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1212,7 +1212,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -475,10 +475,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
@@ -957,7 +957,7 @@
       <c r="E11" s="12">
         <v>9141</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -1022,7 +1022,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -1035,7 +1035,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
@@ -1141,94 +1141,89 @@
       <c r="A28" s="1">
         <v>9121</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>9141</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="D1:E1"/>
@@ -1237,6 +1232,11 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -248,8 +248,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,10 +475,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,21 +777,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
-    <col min="6" max="6" width="24.4609375" customWidth="1"/>
-    <col min="7" max="9" width="20.84375" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -812,7 +812,7 @@
       </c>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -958,11 +958,11 @@
         <v>9141</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1">
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1023,11 +1023,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1">
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1036,11 +1036,11 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1">
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1">
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1">
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1">
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1">
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1">
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="20.5" thickBot="1">
+    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1131,99 +1131,104 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="17" customFormat="1">
+    <row r="26" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1"/>
-    <row r="28" spans="1:9" ht="26" customHeight="1">
+    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9121</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9141</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="D1:E1"/>
@@ -1232,11 +1237,6 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017/8/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注：每次自己在“解决”列标注已解决项目，“反馈”列空出</t>
     <rPh sb="0" eb="1">
       <t>zhu</t>
@@ -207,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017/9/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ViewPager的每一项View仅在运行时创建，上层仅提供数据</t>
     <rPh sb="9" eb="10">
       <t>de</t>
@@ -248,8 +240,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -438,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -475,10 +467,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,21 +772,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.84375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" customWidth="1"/>
+    <col min="6" max="6" width="24.4609375" customWidth="1"/>
+    <col min="7" max="9" width="20.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -803,16 +798,16 @@
         <v>42992</v>
       </c>
       <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
-        <v>7</v>
+      <c r="F1" s="15">
+        <v>42998</v>
       </c>
       <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
-        <v>3</v>
+      <c r="H1" s="15">
+        <v>43002</v>
       </c>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -839,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -852,7 +847,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -867,7 +862,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="24" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -880,7 +875,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -893,7 +888,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="24" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -906,7 +901,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -919,7 +914,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -932,7 +927,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="24" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -947,7 +942,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -962,7 +957,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -975,7 +970,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="24" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -988,7 +983,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1001,7 +996,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="24" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1014,7 +1009,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1027,7 +1022,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="24" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1040,7 +1035,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="24" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1050,10 +1045,10 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="24" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1063,10 +1058,10 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="24" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1076,10 +1071,10 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="24" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1089,10 +1084,10 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="24" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1102,10 +1097,10 @@
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="24" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1115,10 +1110,10 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="20.5" thickBot="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1128,107 +1123,102 @@
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="17" customFormat="1">
       <c r="A26" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="42" customHeight="1"/>
+    <row r="28" spans="1:9" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>9121</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>9141</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="B30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="D1:E1"/>
@@ -1237,6 +1227,11 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="6200" yWindow="880" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -236,12 +236,89 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>反射布局不要用根类型直接强转，用View封装后findViewById，弹性更好</t>
+    <rPh sb="0" eb="1">
+      <t>fan'she</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'yao'yong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qiang'zhuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>feng'zhuagn</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>tan'xing</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>geng'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页接受关键字，从文件中进行搜索操作然后展示</t>
+    <rPh sb="0" eb="1">
+      <t>sou'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'sou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan'jian'zi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wen'jian'zhong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>sou'suo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>cao'zuo</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ran'hou'zhan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +340,24 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -427,8 +522,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -466,12 +567,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,12 +591,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -772,43 +879,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
-    <col min="6" max="6" width="24.4609375" customWidth="1"/>
-    <col min="7" max="9" width="20.84375" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="16">
         <v>42990</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15">
+      <c r="C1" s="17"/>
+      <c r="D1" s="16">
         <v>42992</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15">
+      <c r="E1" s="17"/>
+      <c r="F1" s="16">
         <v>42998</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15">
+      <c r="G1" s="17"/>
+      <c r="H1" s="16">
         <v>43002</v>
       </c>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="19"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -834,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -847,7 +954,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -862,7 +969,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -875,7 +982,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1">
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -888,7 +995,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -901,7 +1008,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -914,7 +1021,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -927,7 +1034,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -942,7 +1049,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -957,7 +1064,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -970,7 +1077,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -983,7 +1090,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -996,7 +1103,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1009,7 +1116,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1">
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1022,7 +1129,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1">
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1035,7 +1142,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1">
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1046,9 +1153,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1059,9 +1166,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1072,9 +1179,11 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1">
+      <c r="I20" s="12">
+        <v>9221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1085,9 +1194,9 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1">
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1098,9 +1207,11 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1">
+      <c r="I22" s="12">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1111,9 +1222,9 @@
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.5" thickBot="1">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1123,16 +1234,16 @@
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="17" customFormat="1">
-      <c r="A26" s="17" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1"/>
-    <row r="28" spans="1:9" ht="26" customHeight="1">
+    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9121</v>
       </c>
@@ -1147,78 +1258,93 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9141</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>9221</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9222</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="D1:E1"/>
@@ -1227,11 +1353,6 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -317,8 +317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -571,10 +571,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,6 +590,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -877,23 +883,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:I32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.84375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="9" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" customWidth="1"/>
+    <col min="6" max="6" width="24.4609375" customWidth="1"/>
+    <col min="7" max="11" width="20.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -910,11 +916,15 @@
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="16">
-        <v>43002</v>
+        <v>43000</v>
       </c>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="16">
+        <v>43000</v>
+      </c>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -940,8 +950,14 @@
       <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -953,8 +969,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -968,8 +986,10 @@
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -981,8 +1001,10 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -994,8 +1016,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1007,8 +1031,10 @@
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1020,8 +1046,10 @@
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1033,8 +1061,10 @@
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="24" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1048,8 +1078,10 @@
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1063,8 +1095,10 @@
       <c r="G11" s="9"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="24" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1076,8 +1110,10 @@
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="24" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1089,8 +1125,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1102,8 +1140,10 @@
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="24" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1115,8 +1155,10 @@
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="24" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1128,8 +1170,10 @@
       <c r="G16" s="9"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="24" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1141,8 +1185,10 @@
       <c r="G17" s="9"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="24" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1154,8 +1200,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="24" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1167,8 +1215,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="24" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1182,8 +1232,10 @@
       <c r="I20" s="12">
         <v>9221</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="9"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="24" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1195,8 +1247,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="24" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1210,8 +1264,10 @@
       <c r="I22" s="12">
         <v>9222</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="9"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="24" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1223,8 +1279,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.5" thickBot="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1236,115 +1294,112 @@
       <c r="G24" s="7"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-    </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="26" spans="1:11" s="18" customFormat="1">
       <c r="A26" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="42" customHeight="1"/>
+    <row r="28" spans="1:11" ht="26" customHeight="1">
       <c r="A28" s="1">
         <v>9121</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>9122</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>9141</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>9221</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>9222</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
+  <mergeCells count="14">
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="D1:E1"/>
@@ -1353,6 +1408,12 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,6 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -311,6 +312,14 @@
     <rPh sb="21" eb="22">
       <t>ran'hou'zhan'shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/9/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/9/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,15 +340,6 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -358,6 +358,40 @@
       <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -388,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -492,10 +526,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -507,16 +541,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -524,77 +571,102 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -883,407 +955,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.84375" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
-    <col min="6" max="6" width="24.4609375" customWidth="1"/>
-    <col min="7" max="11" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" style="22" customWidth="1"/>
+    <col min="2" max="3" width="20.84375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.4609375" style="12" customWidth="1"/>
+    <col min="7" max="11" width="20.84375" style="12" customWidth="1"/>
+    <col min="12" max="13" width="15.4609375" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="2">
         <v>42990</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2">
         <v>42992</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2">
         <v>42998</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16">
+      <c r="G1" s="3"/>
+      <c r="H1" s="2">
         <v>43000</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="16">
-        <v>43000</v>
-      </c>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="2">
+        <v>43008</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1">
-      <c r="A3" s="3">
+      <c r="L2" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="M2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1">
-      <c r="A4" s="3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>9121</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1">
-      <c r="A5" s="3">
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1">
-      <c r="A6" s="3">
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1">
-      <c r="A7" s="3">
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="24" customHeight="1">
-      <c r="A8" s="3">
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="24" customHeight="1">
-      <c r="A9" s="3">
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1">
-      <c r="A10" s="3">
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>9122</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="A11" s="3">
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>9141</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="24" customHeight="1">
-      <c r="A12" s="3">
+      <c r="G11" s="25"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="24" customHeight="1">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="24" customHeight="1">
-      <c r="A13" s="3">
+      <c r="E12" s="25"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="24" customHeight="1">
-      <c r="A14" s="3">
+      <c r="E13" s="25"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="24" customHeight="1">
-      <c r="A15" s="3">
+      <c r="E14" s="25"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="24" customHeight="1">
-      <c r="A16" s="3">
+      <c r="E15" s="25"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="24" customHeight="1">
-      <c r="A17" s="3">
+      <c r="G16" s="25"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="24" customHeight="1">
-      <c r="A18" s="3">
+      <c r="G17" s="25"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" ht="24" customHeight="1">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" ht="24" customHeight="1">
-      <c r="A19" s="3">
+      <c r="I18" s="25"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="1:15" ht="24" customHeight="1">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" ht="24" customHeight="1">
-      <c r="A20" s="3">
+      <c r="I19" s="25"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:15" ht="24" customHeight="1">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="12">
+      <c r="I20" s="13">
         <v>9221</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" ht="24" customHeight="1">
-      <c r="A21" s="3">
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" ht="24" customHeight="1">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="24" customHeight="1">
-      <c r="A22" s="3">
+      <c r="I21" s="25"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" ht="24" customHeight="1">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="12">
+      <c r="I22" s="13">
         <v>9222</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" ht="24" customHeight="1">
-      <c r="A23" s="3">
+      <c r="K22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" ht="24" customHeight="1">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.5" thickBot="1">
-      <c r="A24" s="3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
       <c r="B24" s="6"/>
@@ -1292,128 +1471,495 @@
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="26" spans="1:11" s="18" customFormat="1">
-      <c r="A26" s="18" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="29">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="29">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A30" s="16">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" s="18" customFormat="1">
+      <c r="A31" s="29">
+        <v>29</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="29">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A34" s="16">
+        <v>32</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="19"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="29">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A36" s="16">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="29">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A38" s="16">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="29">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A40" s="16">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="1:15" s="18" customFormat="1">
+      <c r="A41" s="29">
+        <v>39</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="17"/>
+    </row>
+    <row r="42" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A42" s="16">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="1:15" ht="20.5" thickBot="1">
+      <c r="A43" s="29">
+        <v>41</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="20"/>
+    </row>
+    <row r="45" spans="1:15" s="21" customFormat="1">
+      <c r="A45" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="42" customHeight="1"/>
-    <row r="28" spans="1:11" ht="26" customHeight="1">
-      <c r="A28" s="1">
+    <row r="46" spans="1:15" ht="42" customHeight="1"/>
+    <row r="47" spans="1:15" ht="26" customHeight="1">
+      <c r="A47" s="22">
         <v>9121</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B47" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="22">
         <v>9122</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B48" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="22">
         <v>9141</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B49" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="22">
         <v>9221</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B50" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="22">
         <v>9222</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B51" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
+  <mergeCells count="16">
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A45:XFD45"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="880" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="3480" yWindow="1080" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -322,12 +322,25 @@
     <t>2017/9/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ApiBase中未使用常量</t>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei'shi'yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chang'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,7 +564,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,7 +582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -577,23 +590,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,50 +647,77 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -957,998 +997,1000 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A28" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B52" sqref="B52:I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" style="22" customWidth="1"/>
-    <col min="2" max="3" width="20.84375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.4609375" style="12" customWidth="1"/>
-    <col min="7" max="11" width="20.84375" style="12" customWidth="1"/>
-    <col min="12" max="13" width="15.4609375" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="12"/>
+    <col min="1" max="1" width="20.83203125" style="17" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="8" customWidth="1"/>
+    <col min="7" max="11" width="20.83203125" style="8" customWidth="1"/>
+    <col min="12" max="13" width="15.5" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="29">
         <v>42990</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2">
+      <c r="C1" s="30"/>
+      <c r="D1" s="29">
         <v>42992</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29">
         <v>42998</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2">
+      <c r="G1" s="30"/>
+      <c r="H1" s="29">
         <v>43000</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2">
+      <c r="I1" s="30"/>
+      <c r="J1" s="29">
         <v>43008</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1">
-      <c r="A4" s="8">
+      <c r="B3" s="5"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="13">
+      <c r="B4" s="5"/>
+      <c r="C4" s="9">
         <v>9121</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1">
-      <c r="A5" s="8">
+      <c r="D4" s="5"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1">
-      <c r="A6" s="8">
+      <c r="B5" s="5"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1">
-      <c r="A7" s="8">
+      <c r="B6" s="5"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1">
-      <c r="A8" s="8">
+      <c r="B7" s="5"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1">
-      <c r="A9" s="8">
+      <c r="B8" s="5"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1">
-      <c r="A10" s="8">
+      <c r="B9" s="5"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="13">
+      <c r="B10" s="5"/>
+      <c r="C10" s="9">
         <v>9122</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1">
-      <c r="A11" s="8">
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="13">
+      <c r="B11" s="10"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9">
         <v>9141</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1">
-      <c r="A12" s="8">
+      <c r="F11" s="5"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1">
-      <c r="A13" s="8">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1">
-      <c r="A14" s="8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1">
-      <c r="A15" s="8">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1">
-      <c r="A16" s="8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1">
-      <c r="A17" s="8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1">
-      <c r="A18" s="8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1">
-      <c r="A19" s="8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1">
-      <c r="A20" s="8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="13">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="9">
         <v>9221</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1">
-      <c r="A21" s="8">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1">
-      <c r="A22" s="8">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="13">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="9">
         <v>9222</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1">
-      <c r="A23" s="8">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="24" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A24" s="16">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="29">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A26" s="16">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="29">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="9">
+        <v>9301</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A28" s="16">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="29">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A30" s="16">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" s="18" customFormat="1">
-      <c r="A31" s="29">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
         <v>29</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A32" s="16">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="29">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A34" s="16">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="19"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="29">
+      <c r="B34" s="20"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>33</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A36" s="16">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="29">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
         <v>35</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A38" s="16">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="29">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
         <v>37</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15"/>
-    </row>
-    <row r="40" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A40" s="16">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="15"/>
-    </row>
-    <row r="41" spans="1:15" s="18" customFormat="1">
-      <c r="A41" s="29">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
         <v>39</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="17"/>
-    </row>
-    <row r="42" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A42" s="16">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="15"/>
-    </row>
-    <row r="43" spans="1:15" ht="20.5" thickBot="1">
-      <c r="A43" s="29">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
         <v>41</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="20"/>
-    </row>
-    <row r="45" spans="1:15" s="21" customFormat="1">
-      <c r="A45" s="21" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="45" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="42" customHeight="1"/>
-    <row r="47" spans="1:15" ht="26" customHeight="1">
-      <c r="A47" s="22">
+    <row r="46" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:15" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
         <v>9121</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="22">
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
         <v>9122</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="22">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
         <v>9141</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="22">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
         <v>9221</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="22">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>9222</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>9301</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
     <mergeCell ref="B47:I47"/>
     <mergeCell ref="B48:I48"/>
     <mergeCell ref="D1:E1"/>
@@ -1960,6 +2002,11 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/follows/GST_follow0912.xlsx
+++ b/follows/GST_follow0912.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BBDTEK\Practice\BBDTEKProject\follows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>问题编号</t>
     <rPh sb="0" eb="1">
@@ -315,14 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017/9/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/9/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ApiBase中未使用常量</t>
     <rPh sb="7" eb="8">
       <t>zhong</t>
@@ -339,8 +331,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,15 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -534,36 +517,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -603,7 +556,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,60 +592,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -995,60 +922,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B52" sqref="B52:I52"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="17" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.84375" style="14" customWidth="1"/>
+    <col min="2" max="3" width="20.84375" style="8" customWidth="1"/>
     <col min="4" max="4" width="23" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="8" customWidth="1"/>
-    <col min="7" max="11" width="20.83203125" style="8" customWidth="1"/>
-    <col min="12" max="13" width="15.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.4609375" style="8" customWidth="1"/>
+    <col min="7" max="11" width="20.84375" style="8" customWidth="1"/>
+    <col min="12" max="13" width="15.4609375" style="8" customWidth="1"/>
     <col min="14" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="20">
         <v>42990</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29">
+      <c r="C1" s="21"/>
+      <c r="D1" s="20">
         <v>42992</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29">
+      <c r="E1" s="21"/>
+      <c r="F1" s="20">
         <v>42998</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29">
+      <c r="G1" s="21"/>
+      <c r="H1" s="20">
         <v>43000</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="29">
+      <c r="I1" s="21"/>
+      <c r="J1" s="20">
         <v>43008</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="20">
+        <v>43033</v>
+      </c>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="19"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1085,19 +1007,13 @@
       <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="18"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
@@ -1108,10 +1024,8 @@
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1120,7 +1034,7 @@
         <v>9121</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -1129,15 +1043,13 @@
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
@@ -1148,15 +1060,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
@@ -1167,15 +1077,13 @@
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
@@ -1186,15 +1094,13 @@
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
@@ -1205,15 +1111,13 @@
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="18"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
@@ -1224,10 +1128,8 @@
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1236,7 +1138,7 @@
         <v>9122</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
@@ -1245,10 +1147,8 @@
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1259,24 +1159,22 @@
         <v>9141</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
@@ -1285,17 +1183,15 @@
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" ht="24" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
@@ -1304,17 +1200,15 @@
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" ht="24" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
@@ -1323,17 +1217,15 @@
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="24" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="2"/>
@@ -1342,10 +1234,8 @@
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" ht="24" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1354,17 +1244,15 @@
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" ht="24" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1373,17 +1261,15 @@
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" ht="24" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1394,15 +1280,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
       <c r="L18" s="10"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1413,15 +1297,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" ht="24" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1439,10 +1321,8 @@
       <c r="K20" s="5"/>
       <c r="L20" s="10"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" ht="24" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1453,15 +1333,13 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
       <c r="L21" s="10"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" ht="24" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1479,10 +1357,8 @@
       <c r="K22" s="5"/>
       <c r="L22" s="10"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" ht="24" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1498,10 +1374,8 @@
       <c r="K23" s="5"/>
       <c r="L23" s="10"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" ht="20.5" thickBot="1">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -1517,11 +1391,9 @@
       <c r="K24" s="5"/>
       <c r="L24" s="10"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
@@ -1536,10 +1408,8 @@
       <c r="K25" s="5"/>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:13" ht="20.5" thickBot="1">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -1555,13 +1425,11 @@
       <c r="K26" s="9">
         <v>9301</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
       <c r="B27" s="2"/>
@@ -1576,10 +1444,8 @@
       <c r="K27" s="5"/>
       <c r="L27" s="10"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:13" ht="20.5" thickBot="1">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -1595,11 +1461,9 @@
       <c r="K28" s="5"/>
       <c r="L28" s="10"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
       <c r="B29" s="2"/>
@@ -1614,399 +1478,172 @@
       <c r="K29" s="5"/>
       <c r="L29" s="10"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
-        <v>29</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
-        <v>39</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
-        <v>41</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="16"/>
-    </row>
-    <row r="45" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1">
+      <c r="A31" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:15" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="14">
         <v>9121</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B33" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="14">
         <v>9122</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B34" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="14">
         <v>9141</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="14">
         <v>9221</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="14">
         <v>9222</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B37" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="14">
         <v>9301</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-    </row>
+      <c r="B38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="41" spans="1:13" s="13" customFormat="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="45" spans="1:13" s="17" customFormat="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" ht="42" customHeight="1"/>
+    <row r="47" spans="1:13" ht="26" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
+  <mergeCells count="14">
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A45:XFD45"/>
+    <mergeCell ref="B35:I35"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
